--- a/data/trans_bre/P23_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_6_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>18,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>38,99%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>50,66%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>58,17%</t>
+          <t>66,2%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21,2%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>423,9%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 7,46</t>
+          <t>-4,28; 8,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 7,68</t>
+          <t>-1,43; 8,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 5,4</t>
+          <t>-2,65; 5,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 11,74</t>
+          <t>10,96; 26,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 207,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 170,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 113,13</t>
+          <t>-46,3; 231,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 161,71</t>
+          <t>-19,31; 215,74</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-33,44; 115,23</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>127,94; 1240,31</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>67,48%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-19,22%</t>
+          <t>34,14%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>63,46%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-41,49%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 5,45</t>
+          <t>-2,46; 7,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,43</t>
+          <t>-2,99; 4,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 5,61</t>
+          <t>0,22; 5,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 1,31</t>
+          <t>-14,74; -0,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 110,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,93; 103,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 165,79</t>
+          <t>-31,22; 132,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 16,21</t>
+          <t>-39,81; 142,24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 172,01</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-75,63; -2,71</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-34,54%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>-56,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-25,56%</t>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22,5%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>44,24%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 1,19</t>
+          <t>-8,62; 0,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,01</t>
+          <t>-4,28; 2,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 3,07</t>
+          <t>-2,06; 3,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 2,98</t>
+          <t>-1,36; 6,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-81,8; 68,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-70,42; 174,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,51; 124,03</t>
+          <t>-93,47; 49,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-67,62; 95,83</t>
+          <t>-75,96; 168,39</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-40,69; 152,76</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-24,69; 213,89</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>88,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>-15,8%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13,02%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,47</t>
+          <t>0,74; 6,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,91</t>
+          <t>-4,15; 2,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 3,22</t>
+          <t>-4,38; 4,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 77,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 81,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 92,9</t>
+          <t>10,86; 233,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 39,36</t>
+          <t>-61,53; 89,37</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-48,75; 105,73</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33,35%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25,37%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>40,75%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>29,69%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 3,71</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 2,81</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 3,81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 4,56</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,85; 86,57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-20,05; 77,16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 95,42</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-16,65; 74,59</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_6_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,18</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>18,37</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>34,54%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>66,2%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>21,2%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>423,9%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>2.357306348568904</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.46116177642245</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.247540846495378</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>18.41817717582603</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.394125626163506</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.7099157999712485</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1733109389490911</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>4.240966612684301</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 8,01</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 8,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 5,71</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>10,96; 26,09</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-46,3; 231,79</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-19,31; 215,74</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-33,44; 115,23</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>127,94; 1240,31</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.708238996232242</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.067623910119613</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.084037537720347</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>10.69841329162003</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.4214946573746385</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1591772197649874</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.3352497744104729</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>1.26106548931364</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.297485521770977</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.195575647944773</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.529980550500949</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>26.1321421991574</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>2.395156949623408</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.268272894370202</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.086211888304339</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>12.37955260237712</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,86</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>26,45%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>34,14%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>63,46%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-41,49%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 7,05</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,99; 4,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 5,53</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-14,74; -0,2</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-31,22; 132,0</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-39,81; 142,24</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 172,01</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-75,63; -2,71</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>1.731485650841349</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.971468781219023</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.054735468119087</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.6069384447331</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.2618178906776136</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4150581211872236</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.6902579812102447</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.4015634409462552</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,51</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-56,78%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>6,54%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>22,5%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>44,24%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.413187039600273</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.96495711699866</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.3855293570062359</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-14.52369121127795</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.2996881400744054</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.297699026234872</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.04259983586371112</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.7522261580602945</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,62; 0,82</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 2,33</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 3,34</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 6,11</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-93,47; 49,57</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-75,96; 168,39</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-40,69; 152,76</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-24,69; 213,89</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.774238535485861</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.891984223305727</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.738586669812826</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-0.003750153514372214</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>1.321651012467524</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.525197138130696</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.757952212383324</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>-0.001420329224047675</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,75</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>88,59%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-15,8%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>13,02%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.989495615763613</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1349119048395933</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.7673044658266563</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.098124911613904</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.4961941799031898</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.0467253143970663</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2110815986357817</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.4436106809335555</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 6,8</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 2,8</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,38; 4,88</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>10,86; 233,8</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-61,53; 89,37</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-48,75; 105,73</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.713435556962144</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.635911357735393</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.22082398383282</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.397573431160199</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.9269104812375019</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7723623812497619</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4177521001912705</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.236496157517781</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.11350107010315</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.322486447955264</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.308660950250628</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.088549239415372</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.7388950708028258</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.680897809682389</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.48059938205792</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.09179468830385</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>33,35%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>25,37%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>40,75%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>29,69%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 3,71</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 2,81</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 3,81</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 4,56</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-8,85; 86,57</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-20,05; 77,16</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 95,42</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-16,65; 74,59</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.5672083604669877</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.937705456214802</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.961314294884688</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.819066318826983</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.1020006361754244</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4364257599927152</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4124191092957082</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3636986972306384</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.773365341444038</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.662772910501535</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2005760384019168</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.599929984292564</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.2547877251327493</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1302281255668075</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.02463128938333664</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1550034753026552</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.170654512325734</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.800167470711934</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.785417706954692</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.94764314645039</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.7380350772807969</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.184174362285084</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.9906983662887374</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.9885469912781981</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
